--- a/Matlab_Excel/Excel/CVRP.xlsx
+++ b/Matlab_Excel/Excel/CVRP.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2ED63CE1-415F-4803-A9B8-B694FB2EA179}"/>
+  <xr:revisionPtr revIDLastSave="1117" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9EB4EAA3-97E9-47A0-8898-1197C59109A5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>R0 300</t>
+    <t>R0 500</t>
   </si>
   <si>
     <t>Total site = 500</t>
@@ -413,327 +413,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C1">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E1">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G1">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="H1">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1">
+        <v>550</v>
+      </c>
+      <c r="J1">
+        <v>600</v>
+      </c>
+      <c r="K1">
+        <v>650</v>
+      </c>
+      <c r="L1">
+        <v>700</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="K1">
-        <v>100</v>
-      </c>
-      <c r="L1">
-        <v>150</v>
-      </c>
-      <c r="M1">
-        <v>200</v>
-      </c>
-      <c r="N1">
+      <c r="Q1">
         <v>250</v>
       </c>
-      <c r="O1">
+      <c r="R1">
         <v>300</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>350</v>
       </c>
-      <c r="Q1">
+      <c r="T1">
         <v>400</v>
       </c>
-      <c r="R1">
+      <c r="U1">
         <v>450</v>
       </c>
-      <c r="S1">
+      <c r="V1">
         <v>500</v>
       </c>
-      <c r="T1">
+      <c r="W1">
         <v>550</v>
       </c>
-      <c r="U1">
+      <c r="X1">
         <v>600</v>
       </c>
-      <c r="V1">
+      <c r="Y1">
         <v>650</v>
       </c>
+      <c r="Z1">
+        <v>700</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D2">
+        <v>27.650700000000001</v>
+      </c>
+      <c r="E2">
+        <v>32.684699999999999</v>
+      </c>
+      <c r="F2">
+        <v>35.140900000000002</v>
+      </c>
+      <c r="G2">
+        <v>41.2971</v>
+      </c>
+      <c r="H2">
+        <v>47.677999999999997</v>
+      </c>
+      <c r="I2">
+        <v>52.5304</v>
+      </c>
+      <c r="J2">
+        <v>55.982199999999999</v>
+      </c>
+      <c r="K2">
+        <v>62.005600000000001</v>
+      </c>
+      <c r="L2">
+        <v>66.832999999999998</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>64.290899999999993</v>
-      </c>
-      <c r="M2">
-        <v>51.489800000000002</v>
-      </c>
-      <c r="N2">
-        <v>43.541800000000002</v>
-      </c>
-      <c r="O2">
-        <v>38.757399999999997</v>
-      </c>
-      <c r="P2">
-        <v>35.7926</v>
-      </c>
       <c r="Q2">
-        <v>33.201500000000003</v>
+        <v>61.7986</v>
       </c>
       <c r="R2">
-        <v>30.613900000000001</v>
+        <v>57.642800000000001</v>
       </c>
       <c r="S2">
-        <v>29.965199999999999</v>
+        <v>54.092399999999998</v>
       </c>
       <c r="T2">
-        <v>29.370200000000001</v>
+        <v>50.606299999999997</v>
       </c>
       <c r="U2">
-        <v>26.739799999999999</v>
+        <v>49.2532</v>
       </c>
       <c r="V2">
-        <v>26.881699999999999</v>
+        <v>47.677999999999997</v>
+      </c>
+      <c r="W2">
+        <v>46.731400000000001</v>
+      </c>
+      <c r="X2">
+        <v>44.705599999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D3">
+        <v>7.9147600000000002</v>
+      </c>
+      <c r="E3">
+        <v>9.0042799999999996</v>
+      </c>
+      <c r="F3">
+        <v>10.1029</v>
+      </c>
+      <c r="G3">
+        <v>11.3406</v>
+      </c>
+      <c r="H3">
+        <v>12.5098</v>
+      </c>
+      <c r="I3">
+        <v>13.6911</v>
+      </c>
+      <c r="J3">
+        <v>14.8383</v>
+      </c>
+      <c r="K3">
+        <v>16.225899999999999</v>
+      </c>
+      <c r="L3">
+        <v>17.504200000000001</v>
+      </c>
+      <c r="P3" t="s">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>19.003599999999999</v>
-      </c>
-      <c r="M3">
-        <v>15.4467</v>
-      </c>
-      <c r="N3">
-        <v>13.255699999999999</v>
-      </c>
-      <c r="O3">
-        <v>12.069699999999999</v>
-      </c>
-      <c r="P3">
-        <v>11.154199999999999</v>
-      </c>
       <c r="Q3">
-        <v>10.4925</v>
+        <v>15.8309</v>
       </c>
       <c r="R3">
-        <v>9.9772300000000005</v>
+        <v>14.848800000000001</v>
       </c>
       <c r="S3">
-        <v>9.5888299999999997</v>
+        <v>13.9636</v>
       </c>
       <c r="T3">
-        <v>9.27468</v>
+        <v>13.3483</v>
       </c>
       <c r="U3">
-        <v>8.9823000000000004</v>
+        <v>12.922599999999999</v>
       </c>
       <c r="V3">
-        <v>8.7644099999999998</v>
+        <v>12.5098</v>
+      </c>
+      <c r="W3">
+        <v>12.2135</v>
+      </c>
+      <c r="X3">
+        <v>11.9034</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D4">
+        <v>10.4922</v>
+      </c>
+      <c r="E4">
+        <v>11.9476</v>
+      </c>
+      <c r="F4">
+        <v>13.414400000000001</v>
+      </c>
+      <c r="G4">
+        <v>15.0662</v>
+      </c>
+      <c r="H4">
+        <v>16.626899999999999</v>
+      </c>
+      <c r="I4">
+        <v>18.2011</v>
+      </c>
+      <c r="J4">
+        <v>19.736000000000001</v>
+      </c>
+      <c r="K4">
+        <v>21.584099999999999</v>
+      </c>
+      <c r="L4">
+        <v>23.287099999999999</v>
+      </c>
+      <c r="P4" t="s">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>24.473700000000001</v>
-      </c>
-      <c r="M4">
-        <v>19.990500000000001</v>
-      </c>
-      <c r="N4">
-        <v>17.231999999999999</v>
-      </c>
-      <c r="O4">
-        <v>15.738</v>
-      </c>
-      <c r="P4">
-        <v>14.586600000000001</v>
-      </c>
       <c r="Q4">
-        <v>13.751799999999999</v>
+        <v>20.824400000000001</v>
       </c>
       <c r="R4">
-        <v>13.106</v>
+        <v>19.582000000000001</v>
       </c>
       <c r="S4">
-        <v>12.615600000000001</v>
+        <v>18.4635</v>
       </c>
       <c r="T4">
-        <v>12.2181</v>
+        <v>17.6859</v>
       </c>
       <c r="U4">
-        <v>11.8551</v>
+        <v>17.148399999999999</v>
       </c>
       <c r="V4">
-        <v>11.5764</v>
+        <v>16.626899999999999</v>
+      </c>
+      <c r="W4">
+        <v>16.253</v>
+      </c>
+      <c r="X4">
+        <v>15.860799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D5">
+        <v>90.497900000000001</v>
+      </c>
+      <c r="E5">
+        <v>101.89</v>
+      </c>
+      <c r="F5">
+        <v>113.396</v>
+      </c>
+      <c r="G5">
+        <v>126.447</v>
+      </c>
+      <c r="H5">
+        <v>138.77600000000001</v>
+      </c>
+      <c r="I5">
+        <v>151.46100000000001</v>
+      </c>
+      <c r="J5">
+        <v>163.21</v>
+      </c>
+      <c r="K5">
+        <v>178.20099999999999</v>
+      </c>
+      <c r="L5">
+        <v>191.965</v>
+      </c>
+      <c r="P5" t="s">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>286.17200000000003</v>
-      </c>
-      <c r="M5">
-        <v>222.148</v>
-      </c>
-      <c r="N5">
-        <v>182.71</v>
-      </c>
-      <c r="O5">
-        <v>161.36199999999999</v>
-      </c>
-      <c r="P5">
-        <v>144.88399999999999</v>
-      </c>
       <c r="Q5">
-        <v>132.97300000000001</v>
+        <v>197.32499999999999</v>
       </c>
       <c r="R5">
-        <v>123.69799999999999</v>
+        <v>180.09200000000001</v>
       </c>
       <c r="S5">
-        <v>116.706</v>
+        <v>164.46799999999999</v>
       </c>
       <c r="T5">
-        <v>111.05200000000001</v>
+        <v>153.648</v>
       </c>
       <c r="U5">
-        <v>105.789</v>
+        <v>146.05799999999999</v>
       </c>
       <c r="V5">
-        <v>101.867</v>
+        <v>138.77600000000001</v>
+      </c>
+      <c r="W5">
+        <v>133.49100000000001</v>
+      </c>
+      <c r="X5">
+        <v>128.042</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="D6">
+        <v>2.8017599999999998</v>
+      </c>
+      <c r="E6">
+        <v>3.1686000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.5404499999999999</v>
+      </c>
+      <c r="G6">
+        <v>3.9152999999999998</v>
+      </c>
+      <c r="H6">
+        <v>4.2155300000000002</v>
+      </c>
+      <c r="I6">
+        <v>4.4794</v>
+      </c>
+      <c r="J6">
+        <v>4.77318</v>
+      </c>
+      <c r="K6">
+        <v>5.03775</v>
+      </c>
+      <c r="L6">
+        <v>5.2559699999999996</v>
+      </c>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>4.6533300000000004</v>
-      </c>
-      <c r="M6">
-        <v>5.3000600000000002</v>
-      </c>
-      <c r="N6">
-        <v>5.7455100000000003</v>
-      </c>
-      <c r="O6">
-        <v>5.9597300000000004</v>
-      </c>
-      <c r="P6">
-        <v>6.1282899999999998</v>
-      </c>
       <c r="Q6">
-        <v>6.2738300000000002</v>
+        <v>3.1608100000000001</v>
       </c>
       <c r="R6">
-        <v>6.3568199999999999</v>
+        <v>3.4784299999999999</v>
       </c>
       <c r="S6">
-        <v>6.4290099999999999</v>
+        <v>3.76755</v>
       </c>
       <c r="T6">
-        <v>6.4977799999999997</v>
+        <v>3.9558200000000001</v>
       </c>
       <c r="U6">
-        <v>6.5658799999999999</v>
+        <v>4.0955899999999996</v>
       </c>
       <c r="V6">
-        <v>6.5811599999999997</v>
-      </c>
-      <c r="W6" s="1"/>
+        <v>4.2155300000000002</v>
+      </c>
+      <c r="W6">
+        <v>4.3175800000000004</v>
+      </c>
+      <c r="X6">
+        <v>4.3777999999999997</v>
+      </c>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
+      <c r="D7">
+        <v>11.151</v>
+      </c>
+      <c r="E7">
+        <v>12.982900000000001</v>
+      </c>
+      <c r="F7">
+        <v>14.6867</v>
+      </c>
+      <c r="G7">
+        <v>16.748100000000001</v>
+      </c>
+      <c r="H7">
+        <v>18.710899999999999</v>
+      </c>
+      <c r="I7">
+        <v>20.576899999999998</v>
+      </c>
+      <c r="J7">
+        <v>22.401700000000002</v>
+      </c>
+      <c r="K7">
+        <v>24.562200000000001</v>
+      </c>
+      <c r="L7">
+        <v>26.644200000000001</v>
+      </c>
+      <c r="P7" t="s">
         <v>7</v>
       </c>
-      <c r="L7">
-        <v>20.913599999999999</v>
-      </c>
-      <c r="M7">
-        <v>18.823799999999999</v>
-      </c>
-      <c r="N7">
-        <v>17.523499999999999</v>
-      </c>
-      <c r="O7">
-        <v>16.839200000000002</v>
-      </c>
-      <c r="P7">
-        <v>16.297899999999998</v>
-      </c>
       <c r="Q7">
-        <v>15.905200000000001</v>
+        <v>21.9451</v>
       </c>
       <c r="R7">
-        <v>15.6084</v>
-      </c>
-      <c r="S7" s="1">
-        <v>15.376799999999999</v>
+        <v>20.976600000000001</v>
+      </c>
+      <c r="S7">
+        <v>20.132200000000001</v>
       </c>
       <c r="T7">
-        <v>15.1905</v>
+        <v>19.491299999999999</v>
       </c>
       <c r="U7">
-        <v>15.0352</v>
+        <v>19.064599999999999</v>
       </c>
       <c r="V7">
-        <v>14.8931</v>
+        <v>18.710899999999999</v>
+      </c>
+      <c r="W7">
+        <v>18.487300000000001</v>
+      </c>
+      <c r="X7">
+        <v>18.093900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -744,35 +865,32 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+    <row r="10" spans="1:29">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="P9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
